--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\Test\.USE THIS TO TEST\InputData\ctrl-settings\GDPGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\ctrl-settings\GDPGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCFD349-4BA1-46D4-8504-ACF10564F6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="OR - FRED Data" sheetId="9" r:id="rId3"/>
-    <sheet name="GDPGR-alternate" sheetId="2" r:id="rId4"/>
-    <sheet name="GDPGR-bau" sheetId="8" r:id="rId5"/>
+    <sheet name="GDPGR-alternate" sheetId="2" r:id="rId3"/>
+    <sheet name="GDPGR-bau" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>About</t>
   </si>
@@ -58,29 +58,6 @@
     <t>broader set of input data.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This control lever adjusts the inputs in the model </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>relative to the data</t>
-    </r>
-  </si>
-  <si>
-    <t>here.  Instead, you specify an adjustment to energy demand and</t>
-  </si>
-  <si>
-    <t>economic activity relative to the levels of energy demand and activity</t>
-  </si>
-  <si>
     <t>for in the various input data files that govern energy demand, etc.</t>
   </si>
   <si>
@@ -96,48 +73,12 @@
     <t>under a economic growth forecast different from that assumed by the</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entered in the other input variables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.  It does not specify new economic</t>
-    </r>
-  </si>
-  <si>
-    <t>conditions on its own - that is, you don't specify a GDP growth rate</t>
-  </si>
-  <si>
-    <t>specified in the input dataset.</t>
-  </si>
-  <si>
     <t>Sources:</t>
   </si>
   <si>
     <t>U.S. GDP Impact of SARC-CoV-2 Pandemic</t>
   </si>
   <si>
-    <t>As of EPS 2.1.1, AEBC is set up to model the impacts of the 2020</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 pandemic.  It uses the latest data available as of Apr 8,</t>
-  </si>
-  <si>
     <t>2020, but due to the rapidly evolving nature of the situation,</t>
   </si>
   <si>
@@ -210,9 +151,6 @@
     <t>Source: Tables 9a, row 1</t>
   </si>
   <si>
-    <t>May STEO</t>
-  </si>
-  <si>
     <t>Counterfactual GDP Growth Rate</t>
   </si>
   <si>
@@ -234,87 +172,34 @@
     <t>https://www.eia.gov/outlooks/steo/</t>
   </si>
   <si>
-    <t>January 2020 and May 2020</t>
-  </si>
-  <si>
     <t>Table 9a</t>
   </si>
   <si>
-    <t>As of EPS 2.1.1, this variable is set up to model the impacts of the 2020</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 pandemic.  It uses the latest data available as of May 12,</t>
-  </si>
-  <si>
     <t>Real GDP (billion chained 2012 dollars)</t>
   </si>
   <si>
-    <t>FRED Graph Observations</t>
-  </si>
-  <si>
-    <t>Federal Reserve Economic Data</t>
-  </si>
-  <si>
-    <t>Link: https://fred.stlouisfed.org</t>
-  </si>
-  <si>
-    <t>Help: https://fred.stlouisfed.org/help-faq</t>
-  </si>
-  <si>
-    <t>Economic Research Division</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of St. Louis</t>
-  </si>
-  <si>
-    <t>ORNGSP</t>
-  </si>
-  <si>
-    <t>Total Gross Domestic Product for Oregon, Millions of Dollars, Annual, Not Seasonally Adjusted</t>
-  </si>
-  <si>
-    <t>Frequency: Annual</t>
-  </si>
-  <si>
-    <t>observation_date</t>
-  </si>
-  <si>
-    <t>Due to lack of data for 2020, we carry over the U.S. prediction.</t>
-  </si>
-  <si>
-    <t>Additional Notes for Oregon EPS</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Total GDP for Oregon</t>
-  </si>
-  <si>
-    <t>FRED Economic Research Data</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/ORNGSP#0</t>
-  </si>
-  <si>
-    <t>Oregon Total Gross Domestic Product for Oregon</t>
-  </si>
-  <si>
-    <t>For the alternate rate, we lack 2020 Oregon specific GDP data, so we carry over the U.S. prediction.</t>
+    <t>November STEO</t>
+  </si>
+  <si>
+    <t>January 2020 and November 2020</t>
+  </si>
+  <si>
+    <t>As of EPS 3.1, this variable is set up to model the impacts of the 2020</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 pandemic.  It uses the latest data available as of November 10,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,15 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -395,21 +271,21 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -431,8 +307,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -714,331 +588,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B50" r:id="rId2" location="0" display="https://fred.stlouisfed.org/series/ORNGSP - 0" xr:uid="{7AF24A89-0282-4444-AF5D-26D4BDFFE65E}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" customWidth="1"/>
+    <col min="4" max="7" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1050,7 +829,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2019</v>
       </c>
@@ -1067,18 +846,18 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>19073</v>
+        <v>19092</v>
       </c>
       <c r="C3">
-        <v>18044</v>
+        <v>18411</v>
       </c>
       <c r="D3">
-        <v>19194</v>
+        <v>19098</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1087,9 +866,9 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>19068</v>
@@ -1107,21 +886,21 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <f>B3</f>
-        <v>19073</v>
+        <v>19092</v>
       </c>
       <c r="C5" s="20">
         <f>C4*($B$3/$B$4)</f>
-        <v>19453.099643381582</v>
+        <v>19472.478288231592</v>
       </c>
       <c r="D5" s="20">
         <f>D4*($B$3/$B$4)</f>
-        <v>19795.189322425005</v>
+        <v>19814.908747640027</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1130,9 +909,9 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1141,7 +920,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1150,17 +929,17 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5">
         <f>(C3-C5)/C5</f>
-        <v>-7.2435738736422492E-2</v>
+        <v>-5.4511720209394626E-2</v>
       </c>
       <c r="D8" s="5">
         <f>(D3-D5)/D5</f>
-        <v>-3.0370476009741777E-2</v>
+        <v>-3.6180269955843815E-2</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -1169,7 +948,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1177,9 +956,9 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1191,9 +970,9 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" s="12">
         <f>C5/B5-1</f>
@@ -1206,13 +985,13 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" s="12">
         <f>C3/B3-1</f>
-        <v>-5.3950610811094202E-2</v>
+        <v>-3.5669390320553163E-2</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -1223,309 +1002,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66E5DA6-88FF-4919-8A7C-5323A4BAA8E2}">
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>35431</v>
-      </c>
-      <c r="B12" s="24">
-        <v>100888.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>35796</v>
-      </c>
-      <c r="B13" s="24">
-        <v>105111.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>36161</v>
-      </c>
-      <c r="B14" s="24">
-        <v>107546.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>36526</v>
-      </c>
-      <c r="B15" s="24">
-        <v>117258.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>36892</v>
-      </c>
-      <c r="B16" s="24">
-        <v>117274.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>37257</v>
-      </c>
-      <c r="B17" s="24">
-        <v>121229.5</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="12">
-        <f>B34/B33-1</f>
-        <v>4.9301701373076101E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>37622</v>
-      </c>
-      <c r="B18" s="24">
-        <v>127211.6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="12">
-        <f>Data!B12</f>
-        <v>-5.3950610811094202E-2</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>37987</v>
-      </c>
-      <c r="B19" s="24">
-        <v>136238.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>38353</v>
-      </c>
-      <c r="B20" s="24">
-        <v>143662.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>38718</v>
-      </c>
-      <c r="B21" s="24">
-        <v>155153.29999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>39083</v>
-      </c>
-      <c r="B22" s="24">
-        <v>161512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>39448</v>
-      </c>
-      <c r="B23" s="24">
-        <v>165189.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>39814</v>
-      </c>
-      <c r="B24" s="24">
-        <v>160640.70000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>40179</v>
-      </c>
-      <c r="B25" s="24">
-        <v>163827.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>40544</v>
-      </c>
-      <c r="B26" s="24">
-        <v>170621.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>40909</v>
-      </c>
-      <c r="B27" s="24">
-        <v>174493.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
-        <v>41275</v>
-      </c>
-      <c r="B28" s="24">
-        <v>179382.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
-        <v>41640</v>
-      </c>
-      <c r="B29" s="24">
-        <v>188880.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>42005</v>
-      </c>
-      <c r="B30" s="24">
-        <v>203158.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>42370</v>
-      </c>
-      <c r="B31" s="24">
-        <v>215050.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="24">
-        <v>226618.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
-        <v>43101</v>
-      </c>
-      <c r="B33" s="24">
-        <v>239782.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
-        <v>43466</v>
-      </c>
-      <c r="B34" s="24">
-        <v>251604.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B2" s="22">
-        <f>'OR - FRED Data'!F18</f>
-        <v>-5.3950610811094202E-2</v>
+        <f>Data!B12</f>
+        <v>-3.5669390320553163E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1533,37 +1037,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" s="22">
-        <f>'OR - FRED Data'!F17</f>
-        <v>4.9301701373076101E-2</v>
+        <f>Data!B11</f>
+        <v>1.9928676316341543E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\ctrl-settings\GDPGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/ctrl-settings/gdpgr/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342975F-EA01-4248-9FD2-8790FF0E510D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="660" yWindow="1380" windowWidth="18520" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="GDPGR-alternate" sheetId="2" r:id="rId3"/>
     <sheet name="GDPGR-bau" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>About</t>
   </si>
@@ -188,12 +190,15 @@
   </si>
   <si>
     <t>SARS-CoV-2 pandemic.  It uses the latest data available as of November 10,</t>
+  </si>
+  <si>
+    <t>March STEO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
@@ -273,7 +278,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -307,6 +312,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -588,29 +594,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.59765625" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="23">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -618,181 +627,181 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -800,22 +809,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" customWidth="1"/>
-    <col min="3" max="3" width="17.265625" customWidth="1"/>
-    <col min="4" max="7" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
@@ -829,7 +838,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2019</v>
       </c>
@@ -846,18 +855,15 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>19092</v>
-      </c>
-      <c r="C3">
-        <v>18411</v>
-      </c>
-      <c r="D3">
-        <v>19098</v>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="20">
+        <v>18423</v>
+      </c>
+      <c r="D3" s="20">
+        <v>19444</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -866,18 +872,18 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>19068</v>
+        <v>19092</v>
       </c>
       <c r="C4">
-        <v>19448</v>
+        <v>18411</v>
       </c>
       <c r="D4">
-        <v>19790</v>
+        <v>19098</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -886,21 +892,18 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
       </c>
       <c r="B5">
-        <f>B3</f>
-        <v>19092</v>
-      </c>
-      <c r="C5" s="20">
-        <f>C4*($B$3/$B$4)</f>
-        <v>19472.478288231592</v>
-      </c>
-      <c r="D5" s="20">
-        <f>D4*($B$3/$B$4)</f>
-        <v>19814.908747640027</v>
+        <v>19068</v>
+      </c>
+      <c r="C5">
+        <v>19448</v>
+      </c>
+      <c r="D5">
+        <v>19790</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -909,9 +912,21 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>37</v>
+    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <f>B4</f>
+        <v>19092</v>
+      </c>
+      <c r="C6" s="20">
+        <f>C5*($B$4/$B$5)</f>
+        <v>19472.478288231592</v>
+      </c>
+      <c r="D6" s="20">
+        <f>D5*($B$4/$B$5)</f>
+        <v>19814.908747640027</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -920,35 +935,19 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5">
-        <f>(C3-C5)/C5</f>
-        <v>-5.4511720209394626E-2</v>
-      </c>
-      <c r="D8" s="5">
-        <f>(D3-D5)/D5</f>
-        <v>-3.6180269955843815E-2</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="12"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -956,28 +955,26 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="12">
-        <f>C5/B5-1</f>
-        <v>1.9928676316341543E-2</v>
-      </c>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5">
+        <f>(C4-C3)/C3</f>
+        <v>-6.5135971340172616E-4</v>
+      </c>
+      <c r="D10" s="5">
+        <f>(D4-D3)/D3</f>
+        <v>-1.7794692450113146E-2</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -985,15 +982,44 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="12">
+        <f>C6/B6-1</f>
+        <v>1.9928676316341543E-2</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="12">
-        <f>C3/B3-1</f>
-        <v>-3.5669390320553163E-2</v>
-      </c>
-      <c r="C12" s="15"/>
+      <c r="B14" s="12">
+        <f>C3/B4-1</f>
+        <v>-3.5040854808296662E-2</v>
+      </c>
+      <c r="C14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,7 +1028,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="22">
+        <f>Data!B14</f>
+        <v>-3.5040854808296662E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1010,12 +1074,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1023,48 +1087,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="22">
-        <f>Data!B12</f>
-        <v>-3.5669390320553163E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="22">
-        <f>Data!B11</f>
+        <f>Data!B13</f>
         <v>1.9928676316341543E-2</v>
       </c>
     </row>

--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/ctrl-settings/gdpgr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\ctrl-settings\GDPGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342975F-EA01-4248-9FD2-8790FF0E510D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098D3574-5E64-4A67-86CB-F89302CF3A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1380" windowWidth="18520" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13950" yWindow="825" windowWidth="14490" windowHeight="16395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -601,25 +601,25 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="23">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -627,174 +627,174 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -816,15 +816,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2019</v>
       </c>
@@ -855,7 +855,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -955,7 +955,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -982,7 +982,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1038,12 +1038,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1074,12 +1074,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>

--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\ctrl-settings\GDPGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098D3574-5E64-4A67-86CB-F89302CF3A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD036DD7-F565-47C7-B2F4-2F1BFB96F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="825" windowWidth="14490" windowHeight="16395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="765" windowWidth="26355" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <t>SARS-CoV-2 pandemic.  It uses the latest data available as of November 10,</t>
   </si>
   <si>
-    <t>March STEO</t>
+    <t>JULY STEO</t>
   </si>
 </sst>
 </file>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="23">
-        <v>44314</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -848,7 +848,9 @@
       <c r="D2">
         <v>2021</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="17">
+        <v>2022</v>
+      </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -860,12 +862,14 @@
         <v>51</v>
       </c>
       <c r="C3" s="20">
-        <v>18423</v>
+        <v>18426</v>
       </c>
       <c r="D3" s="20">
-        <v>19444</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>19784</v>
+      </c>
+      <c r="E3" s="11">
+        <v>20767</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -961,11 +965,11 @@
       </c>
       <c r="C10" s="5">
         <f>(C4-C3)/C3</f>
-        <v>-6.5135971340172616E-4</v>
+        <v>-8.1406707912732006E-4</v>
       </c>
       <c r="D10" s="5">
         <f>(D4-D3)/D3</f>
-        <v>-1.7794692450113146E-2</v>
+        <v>-3.4674484431864133E-2</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -1017,7 +1021,7 @@
       </c>
       <c r="B14" s="12">
         <f>C3/B4-1</f>
-        <v>-3.5040854808296662E-2</v>
+        <v>-3.4883720930232509E-2</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -1034,8 +1038,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1061,7 @@
       </c>
       <c r="B2" s="22">
         <f>Data!B14</f>
-        <v>-3.5040854808296662E-2</v>
+        <v>-3.4883720930232509E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1076,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\ctrl-settings\GDPGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\ctrl-settings\GDPGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD036DD7-F565-47C7-B2F4-2F1BFB96F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4DCB4D-E92E-43C6-AEDA-C7FC5CB4B228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="765" windowWidth="26355" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="1260" windowWidth="12750" windowHeight="12675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>About</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>JULY STEO</t>
+  </si>
+  <si>
+    <t>Oregon</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -294,19 +297,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,8 +606,11 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="23">
-        <v>44384</v>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="18">
+        <v>44824</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,7 +632,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -812,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -825,18 +824,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -848,33 +847,28 @@
       <c r="D2">
         <v>2021</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="8">
         <v>2022</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>18426</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>19784</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>20767</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -889,12 +883,6 @@
       <c r="D4">
         <v>19098</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -909,55 +897,31 @@
       <c r="D5">
         <v>19790</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B6">
         <f>B4</f>
         <v>19092</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <f>C5*($B$4/$B$5)</f>
         <v>19472.478288231592</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <f>D5*($B$4/$B$5)</f>
         <v>19814.908747640027</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -971,20 +935,12 @@
         <f>(D4-D3)/D3</f>
         <v>-3.4674484431864133E-2</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -993,37 +949,31 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>C6/B6-1</f>
         <v>1.9928676316341543E-2</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>C3/B4-1</f>
         <v>-3.4883720930232509E-2</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,8 +988,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,9 +1009,9 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22">
-        <f>Data!B14</f>
-        <v>-3.4883720930232509E-2</v>
+      <c r="B2" s="17">
+        <f>'GDPGR-bau'!B2</f>
+        <v>1.9928676316341543E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1047,7 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="17">
         <f>Data!B13</f>
         <v>1.9928676316341543E-2</v>
       </c>
